--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>311162.8919516581</v>
+        <v>360997.55622771</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484448</v>
+        <v>492028.9342484451</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8127166.082366321</v>
+        <v>8139792.345903243</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>327.2879775827834</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3.99255484702529</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -826,7 +826,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>168.7111025816213</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>209.8868077166424</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>400.8226096329187</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>285.8594785580452</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1063,13 +1063,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>119.929080614291</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1108,7 +1108,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>122.1591039832984</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>161.0265270205339</v>
       </c>
       <c r="E8" t="n">
-        <v>55.11184811680325</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1291,13 +1291,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>163.0623578648646</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>163.5395542426783</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>32.67077719907</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170475</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>386.0027999845006</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.64034175572537</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1771,16 +1771,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904414</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>60.78001549303698</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>18.22772027659417</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>33.08339867820258</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>94.21878984361696</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>249.4112747763483</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.2534186025698</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>147.352527530992</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2248,16 +2248,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225737</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>63.51633119327892</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>126.4702673604303</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>155.1461723647471</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>16.05512456153223</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>164.9135579823461</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>136.0564930767003</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3329,7 +3329,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864833</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.8261815634872</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3560,16 +3560,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3664,16 +3664,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>109.1426757626848</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>60.94899222869556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -3718,7 +3718,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,13 +3952,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930767007</v>
       </c>
       <c r="V43" t="n">
-        <v>166.3197703738364</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4138,22 +4138,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>102.8562685532378</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023122</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>976.7209085440079</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>942.6188397678353</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>506.7090549422798</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>476.974714140979</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2286.210162756282</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382378</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382378</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2231.264116698514</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1826.408662109548</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1407.266198688858</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1403.020479028916</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397431</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064439</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>712.5566317990742</v>
+        <v>734.0120466529457</v>
       </c>
       <c r="C4" t="n">
-        <v>539.9949202822992</v>
+        <v>561.4503351361707</v>
       </c>
       <c r="D4" t="n">
-        <v>374.1169274838219</v>
+        <v>395.5723423376933</v>
       </c>
       <c r="E4" t="n">
-        <v>204.3589237345591</v>
+        <v>225.8143385884306</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="K4" t="n">
-        <v>271.0586252774393</v>
+        <v>200.0427573423654</v>
       </c>
       <c r="L4" t="n">
-        <v>689.2685070454004</v>
+        <v>618.2526391103264</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1077.736506291239</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1519.995309448884</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1939.664558674666</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645007</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214711</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512708</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2028.825591091163</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1750.392590344268</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1463.437082214699</v>
       </c>
       <c r="W4" t="n">
-        <v>1131.794921203953</v>
+        <v>1191.41067780099</v>
       </c>
       <c r="X4" t="n">
-        <v>1131.794921203953</v>
+        <v>946.0189231344027</v>
       </c>
       <c r="Y4" t="n">
-        <v>904.3752505180614</v>
+        <v>734.0120466529457</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.8932738874814</v>
+        <v>1640.914249164595</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>1236.042926303061</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>437.0247332457074</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>1408.436482041988</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W5" t="n">
-        <v>1003.581027453021</v>
+        <v>2086.56159868973</v>
       </c>
       <c r="X5" t="n">
-        <v>584.4385640323317</v>
+        <v>2071.459539309445</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.1524403319851</v>
+        <v>2067.213819649503</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>579.3800998436539</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>579.3800998436539</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>413.5021070451766</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>243.7441032959138</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>243.7441032959138</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1270.644793662241</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W7" t="n">
-        <v>998.6183892485328</v>
+        <v>1693.062784852649</v>
       </c>
       <c r="X7" t="n">
-        <v>998.6183892485328</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y7" t="n">
-        <v>771.198718562641</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.134372851946</v>
+        <v>1515.838921374201</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9919000353691</v>
+        <v>1077.696448557625</v>
       </c>
       <c r="D8" t="n">
-        <v>922.1225192502177</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>866.4539857989013</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>438.586556208109</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137287</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137287</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851288</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851288</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851288</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851288</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>473.4386690283535</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>473.4386690283535</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>928.4913703274503</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626547</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925644</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925644</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925644</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925644</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925644</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925644</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377081</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>1418.639258956392</v>
+        <v>1946.384211519051</v>
       </c>
       <c r="Y8" t="n">
-        <v>1414.393539296449</v>
+        <v>1942.138491859109</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498057</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.487219286448</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230041</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851288</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897047</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.3939335851828</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>387.3939335851828</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>387.3939335851828</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>387.3939335851828</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716307</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114682</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503481</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295688</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>709.6577096581584</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>709.6577096581584</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>543.7797168596811</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>379.070264470929</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>202.3632104326852</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851288</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851288</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851288</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851288</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>311.5303900296485</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>729.7402717976095</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1184.792973096706</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1491.089878955302</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955302</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925644</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925644</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925644</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223641</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1679.355404223641</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1400.922403476746</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1400.922403476746</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W10" t="n">
-        <v>1128.895999063037</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1128.895999063037</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>901.4763283771456</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1356.079523257014</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940405</v>
+        <v>1356.079523257014</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>1356.079523257014</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987272</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>633.668102581952</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834746</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342119</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959685</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713471</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170193</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177142</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2511.87917085155</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2073.736698034974</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1637.826913209418</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.052168367713</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>776.1847387769208</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172013</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
@@ -5285,16 +5285,16 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N14" t="n">
-        <v>3028.309292652057</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O14" t="n">
-        <v>4008.488959222363</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P14" t="n">
-        <v>4836.798834055759</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q14" t="n">
         <v>4836.798834055759</v>
@@ -5309,19 +5309,19 @@
         <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112634</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4170.462783046461</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3765.607328457494</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3346.464865036805</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2938.178741336458</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987276</v>
+        <v>806.2298140987273</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819524</v>
+        <v>633.6681025819522</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834751</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342123</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>298.0321060342123</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
         <v>96.73597668111518</v>
@@ -5479,7 +5479,7 @@
         <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177147</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168567</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.514395351991</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1378.604610526435</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>944.82986568473</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>516.9624360939376</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G17" t="n">
-        <v>115.5646047172016</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
@@ -5522,43 +5522,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>965.4711828007311</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C19" t="n">
-        <v>792.909471283956</v>
+        <v>914.5724765508969</v>
       </c>
       <c r="D19" t="n">
-        <v>627.0314784854787</v>
+        <v>748.6944837524196</v>
       </c>
       <c r="E19" t="n">
-        <v>457.273474736216</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F19" t="n">
-        <v>280.5664206979721</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G19" t="n">
-        <v>185.3959259064399</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111518</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2713.395586583915</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2467.51614016237</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="U19" t="n">
-        <v>2189.083139415475</v>
+        <v>2275.721217135017</v>
       </c>
       <c r="V19" t="n">
-        <v>1902.127631285906</v>
+        <v>2023.790636552847</v>
       </c>
       <c r="W19" t="n">
-        <v>1630.101226872197</v>
+        <v>1751.764232139139</v>
       </c>
       <c r="X19" t="n">
-        <v>1384.70947220561</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y19" t="n">
-        <v>1157.289801519718</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G20" t="n">
         <v>385.8661312378989</v>
@@ -5750,10 +5750,10 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>403.2461837293682</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1237.596475687546</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
         <v>2312.656441940405</v>
@@ -5777,25 +5777,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3994.89235417964</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3590.036899590674</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3170.894436169985</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2762.608312469638</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>999.0870832547528</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C22" t="n">
-        <v>826.5253717379777</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D22" t="n">
-        <v>660.6473789395004</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>490.8893751902377</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
         <v>96.73597668111518</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2222.699039869497</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V22" t="n">
-        <v>1935.743531739927</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1663.717127326219</v>
+        <v>1611.862057829512</v>
       </c>
       <c r="X22" t="n">
-        <v>1418.325372659632</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1190.90570197374</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1083.781082102101</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C25" t="n">
-        <v>911.2193705853255</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D25" t="n">
-        <v>745.3413777868482</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E25" t="n">
-        <v>575.5833740375854</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F25" t="n">
-        <v>398.8763199993416</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6178,19 +6178,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1748.411126173567</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1503.019371506979</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1275.599700821088</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1057.634124109937</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>885.0724125931617</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>719.1944197946844</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>549.4364160454217</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>372.7293620071779</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>207.1380870330055</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1249.452742828924</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957674</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789923</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>611.138520780515</v>
       </c>
       <c r="E31" t="n">
         <v>444.5591692831957</v>
@@ -6625,7 +6625,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
         <v>1341.292728955479</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6883,10 +6883,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
         <v>2176.368833962455</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,34 +6944,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
@@ -6980,7 +6980,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7123,22 +7123,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752035</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.60800300514</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1181.319000882661</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,61 +7160,61 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136697</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1077.292364523333</v>
+        <v>790.3368563937637</v>
       </c>
       <c r="C40" t="n">
-        <v>904.7306530065581</v>
+        <v>617.7751448769886</v>
       </c>
       <c r="D40" t="n">
-        <v>738.8526602080808</v>
+        <v>617.7751448769886</v>
       </c>
       <c r="E40" t="n">
-        <v>569.094656458818</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F40" t="n">
-        <v>392.3876024205742</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057299</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961044</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745659</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7357,7 +7357,7 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
         <v>2292.381813755403</v>
@@ -7366,16 +7366,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>2013.948813008508</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1741.9224085948</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1496.530653928212</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1269.11098324232</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
         <v>2090.757574835212</v>
@@ -7418,25 +7418,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
         <v>4809.322912595857</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1845.949044954128</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7655,43 +7655,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>949.5782250957672</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C46" t="n">
-        <v>777.0165135789921</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D46" t="n">
-        <v>777.0165135789921</v>
+        <v>451.8971520785109</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292482</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910044</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7831,25 +7831,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.816514500646</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.396843814754</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805804063</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>239.5100572483141</v>
+        <v>152.4600735274531</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>407.152590549595</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,19 +8225,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>441.0775086564047</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314109</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314109</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314109</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662685</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314109</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314109</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,19 +8617,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314109</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>309.3908139985817</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,16 +8690,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>832.4129890131121</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
-        <v>592.8367376838246</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8945,7 +8945,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>421.9740460140702</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>-2.647518703460994e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>268.0111327346216</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>185.1957776566218</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>11.38105307846814</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.5985112554905</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>103.1553467313936</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>268.0111327346217</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>49.73195639979878</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>69.71657238081364</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>34.67467827192553</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>184.7831561774889</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>267.5985112554904</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>212.1323395461468</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>63.4301651713669</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>8.789189859683489</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>122.448028004997</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.146865729424036</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>18.31929241554561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>58.9177479490853</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>102.9863699957351</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="V43" t="n">
-        <v>117.7661826744375</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>65.20415515853236</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>160.7958207444075</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>709255.8090482336</v>
+        <v>713143.5151089085</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>709255.8090482336</v>
+        <v>714244.4098713004</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>709980.9309609805</v>
+        <v>714244.4098713004</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>682970.4714021385</v>
+        <v>682970.4714021384</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>682970.4714021384</v>
+        <v>682970.4714021385</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>682970.4714021385</v>
+        <v>682970.4714021382</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>711792.6057379781</v>
+        <v>711792.6057379782</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711792.6057379782</v>
+        <v>711792.6057379781</v>
       </c>
     </row>
     <row r="15">
@@ -26320,19 +26320,19 @@
         <v>241266.2939506838</v>
       </c>
       <c r="E2" t="n">
-        <v>227485.7540872544</v>
+        <v>227485.7540872543</v>
       </c>
       <c r="F2" t="n">
-        <v>227485.7540872544</v>
+        <v>227485.7540872543</v>
       </c>
       <c r="G2" t="n">
-        <v>227485.7540872544</v>
+        <v>227485.7540872543</v>
       </c>
       <c r="H2" t="n">
         <v>227485.7540872543</v>
       </c>
       <c r="I2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="J2" t="n">
         <v>237085.9128618085</v>
@@ -26341,7 +26341,7 @@
         <v>237085.9128618085</v>
       </c>
       <c r="L2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="M2" t="n">
         <v>237085.9128618085</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039031</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739065</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200317</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784502</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510303</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141940.383222885</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>174066.470293212</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
         <v>26563.08616012788</v>
@@ -26448,10 +26448,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020264</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020264</v>
+        <v>27684.07875020272</v>
       </c>
       <c r="O4" t="n">
         <v>27684.07875020268</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814195</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846978</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-141782.1813067106</v>
+        <v>-177335.4820342462</v>
       </c>
       <c r="C6" t="n">
-        <v>409.1193529993834</v>
+        <v>18955.92478299972</v>
       </c>
       <c r="D6" t="n">
-        <v>-5356.25396300116</v>
+        <v>36296.46915690624</v>
       </c>
       <c r="E6" t="n">
-        <v>-96395.96810254789</v>
+        <v>-34408.30811543221</v>
       </c>
       <c r="F6" t="n">
-        <v>127403.325649479</v>
+        <v>127326.7670946821</v>
       </c>
       <c r="G6" t="n">
-        <v>127403.325649479</v>
+        <v>127326.7670946821</v>
       </c>
       <c r="H6" t="n">
-        <v>127403.3256494789</v>
+        <v>127326.7670946821</v>
       </c>
       <c r="I6" t="n">
-        <v>113318.8798729738</v>
+        <v>113295.6555335912</v>
       </c>
       <c r="J6" t="n">
-        <v>20669.13016082314</v>
+        <v>-28947.4583191827</v>
       </c>
       <c r="K6" t="n">
-        <v>131683.5955058133</v>
+        <v>117846.3625985857</v>
       </c>
       <c r="L6" t="n">
-        <v>122735.9844173031</v>
+        <v>131660.3711664307</v>
       </c>
       <c r="M6" t="n">
-        <v>-55107.39110465391</v>
+        <v>-3329.573446572691</v>
       </c>
       <c r="N6" t="n">
-        <v>131683.5955058134</v>
+        <v>131660.3711664307</v>
       </c>
       <c r="O6" t="n">
-        <v>131683.5955058133</v>
+        <v>131660.3711664307</v>
       </c>
       <c r="P6" t="n">
-        <v>131683.5955058133</v>
+        <v>131660.3711664306</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314109</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130661</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130661</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130661</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>106.4730705056276</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27430,16 +27430,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>354.9982257184864</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6.228880916240058</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>15.25866626239042</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>32.93843845549225</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>73.1313020074665</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>44.00628161013961</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>270.524159956766</v>
       </c>
       <c r="E8" t="n">
-        <v>374.3251492764845</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,10 +27913,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4.998065846905547</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.9863699957345</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805804063</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>239.5100572483141</v>
+        <v>152.4600735274531</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>407.152590549595</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34945,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>441.0775086564047</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314109</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314109</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314109</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662685</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314109</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314109</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314109</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>309.3908139985817</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>832.4129890131121</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
-        <v>592.8367376838246</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35665,7 +35665,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>421.9740460140702</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908061</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645591</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512943</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
